--- a/uipath-processes/Finance.Automations/Data/Config.xlsx
+++ b/uipath-processes/Finance.Automations/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ad169bd8be5107/Documents/UiPath/Finance.Ingest/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\UiPath\uipath-processes\Finance.Automations\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{219C8DFD-A57A-424A-ACC7-1D38494FDA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FE7065-60D3-4946-8F09-6FB6CEA2B401}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2514C45E-985C-486C-9D92-FB7C5A5EFCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>The asset folder for the available tags asset.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -707,20 +710,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +864,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,122 +1213,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -1372,32 +1371,32 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
@@ -1448,32 +1447,32 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
@@ -1540,106 +1539,106 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
@@ -1852,18 +1851,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J43"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A2:J6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1874,7 +1873,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2335,10 +2334,16 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">

--- a/uipath-processes/Finance.Automations/Data/Config.xlsx
+++ b/uipath-processes/Finance.Automations/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\UiPath\uipath-processes\Finance.Automations\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2514C45E-985C-486C-9D92-FB7C5A5EFCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB43EE3-CF5E-40BB-A041-591F789C9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,20 +710,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,122 +1216,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -1371,32 +1374,32 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
@@ -1447,32 +1450,32 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
@@ -1539,106 +1542,106 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
@@ -1851,18 +1854,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A2:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A38:J43"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A2:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1873,7 +1876,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2047,7 +2050,7 @@
       <c r="A13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2547,7 +2550,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
